--- a/統計学/000_統計学_matome.xlsx
+++ b/統計学/000_統計学_matome.xlsx
@@ -2453,6 +2453,294 @@
     <t>統計学 95パーセント</t>
   </si>
   <si>
+    <t>種別</t>
+  </si>
+  <si>
+    <t>語</t>
+  </si>
+  <si>
+    <t>周辺語</t>
+  </si>
+  <si>
+    <t>連想語</t>
+  </si>
+  <si>
+    <t>確率論</t>
+  </si>
+  <si>
+    <t>数理</t>
+  </si>
+  <si>
+    <t>計量経済学</t>
+  </si>
+  <si>
+    <t>数理物理学</t>
+  </si>
+  <si>
+    <t>気候学</t>
+  </si>
+  <si>
+    <t>理論化学</t>
+  </si>
+  <si>
+    <t>純粋数学</t>
+  </si>
+  <si>
+    <t>科学哲学</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>応用数学</t>
+  </si>
+  <si>
+    <t>数理ファイナンス</t>
+  </si>
+  <si>
+    <t>ミクロ経済学</t>
+  </si>
+  <si>
+    <t>情報理論</t>
+  </si>
+  <si>
+    <t>ロナルド・フィッシャー</t>
+  </si>
+  <si>
+    <t>数論</t>
+  </si>
+  <si>
+    <t>解析学</t>
+  </si>
+  <si>
+    <t>計算機科学</t>
+  </si>
+  <si>
+    <t>数理経済学</t>
+  </si>
+  <si>
+    <t>量子化学</t>
+  </si>
+  <si>
+    <t>ベイズ統計学</t>
+  </si>
+  <si>
+    <t>計算理論</t>
+  </si>
+  <si>
+    <t>理論計算機科学</t>
+  </si>
+  <si>
+    <t>集団遺伝学</t>
+  </si>
+  <si>
+    <t>金融工学</t>
+  </si>
+  <si>
+    <t>統計学的</t>
+  </si>
+  <si>
+    <t>社会選択理論</t>
+  </si>
+  <si>
+    <t>認知科学</t>
+  </si>
+  <si>
+    <t>仮説検定</t>
+  </si>
+  <si>
+    <t>ゲーム理論</t>
+  </si>
+  <si>
+    <t>会計学</t>
+  </si>
+  <si>
+    <t>経済学</t>
+  </si>
+  <si>
+    <t>数値解析</t>
+  </si>
+  <si>
+    <t>解析的整数論</t>
+  </si>
+  <si>
+    <t>マクロ経済学</t>
+  </si>
+  <si>
+    <t>気象学</t>
+  </si>
+  <si>
+    <t>認知心理学</t>
+  </si>
+  <si>
+    <t>行動経済学</t>
+  </si>
+  <si>
+    <t>言語哲学</t>
+  </si>
+  <si>
+    <t>ポール・サミュエルソン</t>
+  </si>
+  <si>
+    <t>理論物理学</t>
+  </si>
+  <si>
+    <t>地球化学</t>
+  </si>
+  <si>
+    <t>計算化学</t>
+  </si>
+  <si>
+    <t>進化生物学</t>
+  </si>
+  <si>
+    <t>数学基礎論</t>
+  </si>
+  <si>
+    <t>心の哲学</t>
+  </si>
+  <si>
+    <t>人文地理学</t>
+  </si>
+  <si>
+    <t>マルクス経済学</t>
+  </si>
+  <si>
+    <t>計算言語学</t>
+  </si>
+  <si>
+    <t>推計統計学</t>
+  </si>
+  <si>
+    <t>人口統計学</t>
+  </si>
+  <si>
+    <t>分類 (統計学)</t>
+  </si>
+  <si>
+    <t>生物統計学</t>
+  </si>
+  <si>
+    <t>社会統計学</t>
+  </si>
+  <si>
+    <t>統計力学</t>
+  </si>
+  <si>
+    <t>標本 (統計学)</t>
+  </si>
+  <si>
+    <t>分散 (統計学)</t>
+  </si>
+  <si>
+    <t>方向統計学</t>
+  </si>
+  <si>
+    <t>カーネル (統計学)</t>
+  </si>
+  <si>
+    <t>アメリカ合衆国大都市統計地域</t>
+  </si>
+  <si>
+    <t>統計学および機械学習の評価指標</t>
+  </si>
+  <si>
+    <t>要約統計量</t>
+  </si>
+  <si>
+    <t>疾病及び関連保健問題の国際統計分類</t>
+  </si>
+  <si>
+    <t>有意</t>
+  </si>
+  <si>
+    <t>日本統計学会</t>
+  </si>
+  <si>
+    <t>国勢調査 (日本)</t>
+  </si>
+  <si>
+    <t>人口</t>
+  </si>
+  <si>
+    <t>統計数理研究所</t>
+  </si>
+  <si>
+    <t>ベイズ確率</t>
+  </si>
+  <si>
+    <t>アメリカ合衆国小都市統計地域</t>
+  </si>
+  <si>
+    <t>最頻値</t>
+  </si>
+  <si>
+    <t>ノンパラメトリック手法</t>
+  </si>
+  <si>
+    <t>合同統計地域</t>
+  </si>
+  <si>
+    <t>統計図表</t>
+  </si>
+  <si>
+    <t>コクラン・マンテル・ヘンツェルの統計量</t>
+  </si>
+  <si>
+    <t>アメリカ統計学会</t>
+  </si>
+  <si>
+    <t>国勢調査</t>
+  </si>
+  <si>
+    <t>統計量</t>
+  </si>
+  <si>
+    <t>回帰分析</t>
+  </si>
+  <si>
+    <t>高野岩三郎</t>
+  </si>
+  <si>
+    <t>王立統計学会</t>
+  </si>
+  <si>
+    <t>母数</t>
+  </si>
+  <si>
+    <t>順序統計量</t>
+  </si>
+  <si>
+    <t>学問の一覧</t>
+  </si>
+  <si>
+    <t>検定統計量</t>
+  </si>
+  <si>
+    <t>相関係数</t>
+  </si>
+  <si>
+    <t>標準偏差</t>
+  </si>
+  <si>
+    <t>時計学</t>
+  </si>
+  <si>
+    <t>遺伝学</t>
+  </si>
+  <si>
+    <t>スペイン国立統計局</t>
+  </si>
+  <si>
+    <t>意義素</t>
+  </si>
+  <si>
+    <t>数量的データの収集と解釈、また母数を推定するための確率論の使用に関する応用数学の分野</t>
+  </si>
+  <si>
+    <t>スタティスティックス</t>
+  </si>
+  <si>
     <t>データ元</t>
   </si>
   <si>
@@ -3297,294 +3585,6 @@
   </si>
   <si>
     <t>https://leeswijzer.hatenadiary.com/entry/2021/02/07/071226</t>
-  </si>
-  <si>
-    <t>種別</t>
-  </si>
-  <si>
-    <t>語</t>
-  </si>
-  <si>
-    <t>周辺語</t>
-  </si>
-  <si>
-    <t>連想語</t>
-  </si>
-  <si>
-    <t>確率論</t>
-  </si>
-  <si>
-    <t>数理</t>
-  </si>
-  <si>
-    <t>計量経済学</t>
-  </si>
-  <si>
-    <t>数理物理学</t>
-  </si>
-  <si>
-    <t>気候学</t>
-  </si>
-  <si>
-    <t>理論化学</t>
-  </si>
-  <si>
-    <t>純粋数学</t>
-  </si>
-  <si>
-    <t>科学哲学</t>
-  </si>
-  <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
-    <t>応用数学</t>
-  </si>
-  <si>
-    <t>数理ファイナンス</t>
-  </si>
-  <si>
-    <t>ミクロ経済学</t>
-  </si>
-  <si>
-    <t>情報理論</t>
-  </si>
-  <si>
-    <t>ロナルド・フィッシャー</t>
-  </si>
-  <si>
-    <t>数論</t>
-  </si>
-  <si>
-    <t>解析学</t>
-  </si>
-  <si>
-    <t>計算機科学</t>
-  </si>
-  <si>
-    <t>数理経済学</t>
-  </si>
-  <si>
-    <t>量子化学</t>
-  </si>
-  <si>
-    <t>ベイズ統計学</t>
-  </si>
-  <si>
-    <t>計算理論</t>
-  </si>
-  <si>
-    <t>理論計算機科学</t>
-  </si>
-  <si>
-    <t>集団遺伝学</t>
-  </si>
-  <si>
-    <t>金融工学</t>
-  </si>
-  <si>
-    <t>統計学的</t>
-  </si>
-  <si>
-    <t>社会選択理論</t>
-  </si>
-  <si>
-    <t>認知科学</t>
-  </si>
-  <si>
-    <t>仮説検定</t>
-  </si>
-  <si>
-    <t>ゲーム理論</t>
-  </si>
-  <si>
-    <t>会計学</t>
-  </si>
-  <si>
-    <t>経済学</t>
-  </si>
-  <si>
-    <t>数値解析</t>
-  </si>
-  <si>
-    <t>解析的整数論</t>
-  </si>
-  <si>
-    <t>マクロ経済学</t>
-  </si>
-  <si>
-    <t>気象学</t>
-  </si>
-  <si>
-    <t>認知心理学</t>
-  </si>
-  <si>
-    <t>行動経済学</t>
-  </si>
-  <si>
-    <t>言語哲学</t>
-  </si>
-  <si>
-    <t>ポール・サミュエルソン</t>
-  </si>
-  <si>
-    <t>理論物理学</t>
-  </si>
-  <si>
-    <t>地球化学</t>
-  </si>
-  <si>
-    <t>計算化学</t>
-  </si>
-  <si>
-    <t>進化生物学</t>
-  </si>
-  <si>
-    <t>数学基礎論</t>
-  </si>
-  <si>
-    <t>心の哲学</t>
-  </si>
-  <si>
-    <t>人文地理学</t>
-  </si>
-  <si>
-    <t>マルクス経済学</t>
-  </si>
-  <si>
-    <t>計算言語学</t>
-  </si>
-  <si>
-    <t>推計統計学</t>
-  </si>
-  <si>
-    <t>人口統計学</t>
-  </si>
-  <si>
-    <t>分類 (統計学)</t>
-  </si>
-  <si>
-    <t>生物統計学</t>
-  </si>
-  <si>
-    <t>社会統計学</t>
-  </si>
-  <si>
-    <t>統計力学</t>
-  </si>
-  <si>
-    <t>標本 (統計学)</t>
-  </si>
-  <si>
-    <t>分散 (統計学)</t>
-  </si>
-  <si>
-    <t>方向統計学</t>
-  </si>
-  <si>
-    <t>カーネル (統計学)</t>
-  </si>
-  <si>
-    <t>アメリカ合衆国大都市統計地域</t>
-  </si>
-  <si>
-    <t>統計学および機械学習の評価指標</t>
-  </si>
-  <si>
-    <t>要約統計量</t>
-  </si>
-  <si>
-    <t>疾病及び関連保健問題の国際統計分類</t>
-  </si>
-  <si>
-    <t>有意</t>
-  </si>
-  <si>
-    <t>日本統計学会</t>
-  </si>
-  <si>
-    <t>国勢調査 (日本)</t>
-  </si>
-  <si>
-    <t>人口</t>
-  </si>
-  <si>
-    <t>統計数理研究所</t>
-  </si>
-  <si>
-    <t>ベイズ確率</t>
-  </si>
-  <si>
-    <t>アメリカ合衆国小都市統計地域</t>
-  </si>
-  <si>
-    <t>最頻値</t>
-  </si>
-  <si>
-    <t>ノンパラメトリック手法</t>
-  </si>
-  <si>
-    <t>合同統計地域</t>
-  </si>
-  <si>
-    <t>統計図表</t>
-  </si>
-  <si>
-    <t>コクラン・マンテル・ヘンツェルの統計量</t>
-  </si>
-  <si>
-    <t>アメリカ統計学会</t>
-  </si>
-  <si>
-    <t>国勢調査</t>
-  </si>
-  <si>
-    <t>統計量</t>
-  </si>
-  <si>
-    <t>回帰分析</t>
-  </si>
-  <si>
-    <t>高野岩三郎</t>
-  </si>
-  <si>
-    <t>王立統計学会</t>
-  </si>
-  <si>
-    <t>母数</t>
-  </si>
-  <si>
-    <t>順序統計量</t>
-  </si>
-  <si>
-    <t>学問の一覧</t>
-  </si>
-  <si>
-    <t>検定統計量</t>
-  </si>
-  <si>
-    <t>相関係数</t>
-  </si>
-  <si>
-    <t>標準偏差</t>
-  </si>
-  <si>
-    <t>時計学</t>
-  </si>
-  <si>
-    <t>遺伝学</t>
-  </si>
-  <si>
-    <t>スペイン国立統計局</t>
-  </si>
-  <si>
-    <t>意義素</t>
-  </si>
-  <si>
-    <t>数量的データの収集と解釈、また母数を推定するための確率論の使用に関する応用数学の分野</t>
-  </si>
-  <si>
-    <t>スタティスティックス</t>
   </si>
 </sst>
 </file>
@@ -21953,6 +21953,1181 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>813</v>
+      </c>
+      <c r="C7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>813</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>813</v>
+      </c>
+      <c r="C11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>813</v>
+      </c>
+      <c r="C14" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>813</v>
+      </c>
+      <c r="C15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>813</v>
+      </c>
+      <c r="C19" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>813</v>
+      </c>
+      <c r="C20" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C22" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>813</v>
+      </c>
+      <c r="C23" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>813</v>
+      </c>
+      <c r="C24" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>813</v>
+      </c>
+      <c r="C25" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>813</v>
+      </c>
+      <c r="C26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>813</v>
+      </c>
+      <c r="C27" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>813</v>
+      </c>
+      <c r="C29" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C30" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C31" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>813</v>
+      </c>
+      <c r="C32" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>813</v>
+      </c>
+      <c r="C34" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>813</v>
+      </c>
+      <c r="C35" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>813</v>
+      </c>
+      <c r="C36" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>813</v>
+      </c>
+      <c r="C37" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>813</v>
+      </c>
+      <c r="C38" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>813</v>
+      </c>
+      <c r="C39" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>813</v>
+      </c>
+      <c r="C40" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>813</v>
+      </c>
+      <c r="C41" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>813</v>
+      </c>
+      <c r="C42" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>813</v>
+      </c>
+      <c r="C43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>813</v>
+      </c>
+      <c r="C44" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>813</v>
+      </c>
+      <c r="C45" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>813</v>
+      </c>
+      <c r="C46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>813</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>813</v>
+      </c>
+      <c r="C48" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>813</v>
+      </c>
+      <c r="C49" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>813</v>
+      </c>
+      <c r="C50" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>813</v>
+      </c>
+      <c r="C51" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>814</v>
+      </c>
+      <c r="C53" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>814</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>814</v>
+      </c>
+      <c r="C55" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>814</v>
+      </c>
+      <c r="C56" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>814</v>
+      </c>
+      <c r="C57" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>814</v>
+      </c>
+      <c r="C58" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>814</v>
+      </c>
+      <c r="C59" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>814</v>
+      </c>
+      <c r="C60" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>814</v>
+      </c>
+      <c r="C61" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>814</v>
+      </c>
+      <c r="C62" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>814</v>
+      </c>
+      <c r="C63" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>814</v>
+      </c>
+      <c r="C64" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>814</v>
+      </c>
+      <c r="C65" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>814</v>
+      </c>
+      <c r="C66" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>814</v>
+      </c>
+      <c r="C67" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>814</v>
+      </c>
+      <c r="C68" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>814</v>
+      </c>
+      <c r="C69" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>814</v>
+      </c>
+      <c r="C70" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>814</v>
+      </c>
+      <c r="C71" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>814</v>
+      </c>
+      <c r="C72" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>814</v>
+      </c>
+      <c r="C73" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>814</v>
+      </c>
+      <c r="C74" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>814</v>
+      </c>
+      <c r="C75" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>814</v>
+      </c>
+      <c r="C76" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>814</v>
+      </c>
+      <c r="C77" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>814</v>
+      </c>
+      <c r="C78" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>814</v>
+      </c>
+      <c r="C79" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>814</v>
+      </c>
+      <c r="C80" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>814</v>
+      </c>
+      <c r="C81" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>814</v>
+      </c>
+      <c r="C82" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>814</v>
+      </c>
+      <c r="C83" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>814</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>814</v>
+      </c>
+      <c r="C85" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>814</v>
+      </c>
+      <c r="C86" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>814</v>
+      </c>
+      <c r="C87" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>814</v>
+      </c>
+      <c r="C88" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>814</v>
+      </c>
+      <c r="C89" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>814</v>
+      </c>
+      <c r="C90" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>814</v>
+      </c>
+      <c r="C91" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>814</v>
+      </c>
+      <c r="C92" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>814</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>814</v>
+      </c>
+      <c r="C94" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>814</v>
+      </c>
+      <c r="C95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>814</v>
+      </c>
+      <c r="C96" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>814</v>
+      </c>
+      <c r="C97" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>814</v>
+      </c>
+      <c r="C98" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>814</v>
+      </c>
+      <c r="C99" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>814</v>
+      </c>
+      <c r="C100" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>814</v>
+      </c>
+      <c r="C101" t="s">
+        <v>903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C3" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21961,13 +23136,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -21975,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C2" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>956</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -21989,13 +23164,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C3" t="s">
-        <v>817</v>
+        <v>913</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>957</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -22003,13 +23178,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C4" t="s">
-        <v>818</v>
+        <v>914</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>958</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -22017,13 +23192,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C5" t="s">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>959</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -22031,13 +23206,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C6" t="s">
-        <v>820</v>
+        <v>916</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>960</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -22045,13 +23220,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C7" t="s">
-        <v>821</v>
+        <v>917</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>961</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -22059,13 +23234,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C8" t="s">
-        <v>822</v>
+        <v>918</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>962</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -22073,13 +23248,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C9" t="s">
-        <v>823</v>
+        <v>919</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>963</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -22087,13 +23262,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C10" t="s">
-        <v>824</v>
+        <v>920</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>964</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -22101,13 +23276,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C11" t="s">
-        <v>825</v>
+        <v>921</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>965</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -22115,13 +23290,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C12" t="s">
-        <v>826</v>
+        <v>922</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>966</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -22129,13 +23304,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C13" t="s">
-        <v>827</v>
+        <v>923</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>967</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -22143,13 +23318,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C14" t="s">
-        <v>828</v>
+        <v>924</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -22157,13 +23332,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C15" t="s">
-        <v>829</v>
+        <v>925</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>969</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -22171,13 +23346,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C16" t="s">
-        <v>830</v>
+        <v>926</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>970</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -22185,13 +23360,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C17" t="s">
-        <v>831</v>
+        <v>927</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>971</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -22199,13 +23374,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C18" t="s">
-        <v>832</v>
+        <v>928</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>972</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -22213,13 +23388,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C19" t="s">
-        <v>833</v>
+        <v>929</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>973</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -22227,13 +23402,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C20" t="s">
-        <v>834</v>
+        <v>930</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>974</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -22241,13 +23416,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>835</v>
+        <v>931</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>975</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -22255,13 +23430,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C22" t="s">
-        <v>836</v>
+        <v>932</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>976</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -22269,13 +23444,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C23" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>977</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -22283,13 +23458,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C24" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>978</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -22297,13 +23472,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C25" t="s">
-        <v>839</v>
+        <v>935</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>979</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -22311,13 +23486,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C26" t="s">
-        <v>840</v>
+        <v>936</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>980</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -22325,13 +23500,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C27" t="s">
-        <v>841</v>
+        <v>937</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>981</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -22339,13 +23514,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C28" t="s">
-        <v>842</v>
+        <v>938</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>982</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -22353,13 +23528,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C29" t="s">
-        <v>843</v>
+        <v>939</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>983</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -22367,13 +23542,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C30" t="s">
-        <v>844</v>
+        <v>940</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>984</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -22381,13 +23556,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C31" t="s">
-        <v>845</v>
+        <v>941</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>985</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -22395,13 +23570,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C32" t="s">
-        <v>846</v>
+        <v>942</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>986</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -22409,13 +23584,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C33" t="s">
-        <v>847</v>
+        <v>943</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>987</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -22423,13 +23598,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C34" t="s">
-        <v>848</v>
+        <v>944</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>988</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -22437,13 +23612,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C35" t="s">
-        <v>849</v>
+        <v>945</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>989</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -22451,13 +23626,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C36" t="s">
-        <v>850</v>
+        <v>946</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>990</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -22465,13 +23640,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C37" t="s">
-        <v>851</v>
+        <v>947</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>991</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -22479,13 +23654,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C38" t="s">
-        <v>852</v>
+        <v>948</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>992</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -22493,13 +23668,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C39" t="s">
-        <v>853</v>
+        <v>949</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>993</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -22507,13 +23682,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C40" t="s">
-        <v>854</v>
+        <v>950</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>994</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -22521,13 +23696,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C41" t="s">
-        <v>855</v>
+        <v>951</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>995</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -22535,13 +23710,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C42" t="s">
-        <v>856</v>
+        <v>952</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>996</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -22549,13 +23724,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C43" t="s">
-        <v>857</v>
+        <v>953</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>997</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -22563,13 +23738,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C44" t="s">
-        <v>858</v>
+        <v>954</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>998</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -22577,13 +23752,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C45" t="s">
-        <v>859</v>
+        <v>955</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>999</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -22591,13 +23766,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C46" t="s">
-        <v>860</v>
+        <v>956</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1000</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -22605,13 +23780,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C47" t="s">
-        <v>861</v>
+        <v>957</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1001</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -22619,13 +23794,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C48" t="s">
-        <v>862</v>
+        <v>958</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1002</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -22633,13 +23808,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C49" t="s">
-        <v>863</v>
+        <v>959</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1003</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -22647,13 +23822,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C50" t="s">
-        <v>864</v>
+        <v>960</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1004</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -22661,13 +23836,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C51" t="s">
-        <v>865</v>
+        <v>961</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1005</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -22675,13 +23850,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C52" t="s">
-        <v>866</v>
+        <v>962</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1006</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -22689,13 +23864,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C53" t="s">
-        <v>867</v>
+        <v>963</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1007</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -22703,13 +23878,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C54" t="s">
-        <v>868</v>
+        <v>964</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1008</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -22717,13 +23892,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C55" t="s">
-        <v>869</v>
+        <v>965</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1009</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -22731,13 +23906,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C56" t="s">
-        <v>870</v>
+        <v>966</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1010</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -22745,13 +23920,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C57" t="s">
-        <v>871</v>
+        <v>967</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1011</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -22759,13 +23934,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C58" t="s">
-        <v>872</v>
+        <v>968</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1012</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -22773,13 +23948,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C59" t="s">
-        <v>873</v>
+        <v>969</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1013</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -22787,13 +23962,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C60" t="s">
-        <v>874</v>
+        <v>970</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1014</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -22801,13 +23976,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C61" t="s">
-        <v>875</v>
+        <v>971</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1015</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -22815,13 +23990,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C62" t="s">
-        <v>876</v>
+        <v>972</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1016</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -22829,13 +24004,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C63" t="s">
-        <v>877</v>
+        <v>973</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1017</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -22843,13 +24018,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C64" t="s">
-        <v>878</v>
+        <v>974</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1018</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -22857,13 +24032,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C65" t="s">
-        <v>879</v>
+        <v>975</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1019</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -22871,13 +24046,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C66" t="s">
-        <v>880</v>
+        <v>976</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1020</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -22885,13 +24060,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C67" t="s">
-        <v>881</v>
+        <v>977</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1021</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -22899,13 +24074,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C68" t="s">
-        <v>882</v>
+        <v>978</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1022</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -22913,13 +24088,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C69" t="s">
-        <v>883</v>
+        <v>979</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1023</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -22927,13 +24102,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C70" t="s">
-        <v>884</v>
+        <v>980</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1024</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -22941,13 +24116,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C71" t="s">
-        <v>885</v>
+        <v>981</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1025</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -22955,13 +24130,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C72" t="s">
-        <v>886</v>
+        <v>982</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1026</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -22969,13 +24144,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C73" t="s">
-        <v>887</v>
+        <v>983</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1027</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -22983,13 +24158,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C74" t="s">
-        <v>888</v>
+        <v>984</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1028</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -22997,13 +24172,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C75" t="s">
-        <v>889</v>
+        <v>985</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1029</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -23011,13 +24186,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C76" t="s">
-        <v>890</v>
+        <v>986</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1030</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -23025,13 +24200,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C77" t="s">
-        <v>891</v>
+        <v>987</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1031</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -23039,13 +24214,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C78" t="s">
-        <v>892</v>
+        <v>988</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1032</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -23053,13 +24228,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C79" t="s">
-        <v>893</v>
+        <v>989</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1033</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -23067,13 +24242,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C80" t="s">
-        <v>894</v>
+        <v>990</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1034</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -23081,13 +24256,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C81" t="s">
-        <v>895</v>
+        <v>991</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1035</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -23095,13 +24270,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C82" t="s">
-        <v>896</v>
+        <v>992</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1036</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -23109,13 +24284,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C83" t="s">
-        <v>897</v>
+        <v>993</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1037</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -23123,13 +24298,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C84" t="s">
-        <v>898</v>
+        <v>994</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1038</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -23137,13 +24312,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C85" t="s">
-        <v>899</v>
+        <v>995</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1039</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -23151,13 +24326,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C86" t="s">
-        <v>900</v>
+        <v>996</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1040</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -23165,13 +24340,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C87" t="s">
-        <v>901</v>
+        <v>997</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1041</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -23179,13 +24354,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C88" t="s">
-        <v>902</v>
+        <v>998</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1042</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -23193,13 +24368,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C89" t="s">
-        <v>903</v>
+        <v>999</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1043</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -23207,13 +24382,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C90" t="s">
-        <v>904</v>
+        <v>1000</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1044</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -23221,13 +24396,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C91" t="s">
-        <v>905</v>
+        <v>1001</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1045</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -23235,13 +24410,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C92" t="s">
-        <v>906</v>
+        <v>1002</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1046</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -23249,13 +24424,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C93" t="s">
-        <v>907</v>
+        <v>1003</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1047</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -23263,13 +24438,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C94" t="s">
-        <v>908</v>
+        <v>1004</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1048</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -23277,13 +24452,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C95" t="s">
-        <v>909</v>
+        <v>1005</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1049</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -23291,13 +24466,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C96" t="s">
-        <v>910</v>
+        <v>1006</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1050</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -23305,13 +24480,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C97" t="s">
-        <v>911</v>
+        <v>1007</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1051</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -23319,13 +24494,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C98" t="s">
-        <v>912</v>
+        <v>1008</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1052</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -23333,13 +24508,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C99" t="s">
-        <v>913</v>
+        <v>1009</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1053</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -23347,13 +24522,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C100" t="s">
-        <v>914</v>
+        <v>1010</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1054</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -23361,13 +24536,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="C101" t="s">
-        <v>915</v>
+        <v>1011</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1055</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -23375,13 +24550,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C102" t="s">
-        <v>916</v>
+        <v>1012</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1056</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -23389,13 +24564,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C103" t="s">
-        <v>917</v>
+        <v>1013</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1057</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -23403,13 +24578,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C104" t="s">
-        <v>918</v>
+        <v>1014</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1058</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -23417,13 +24592,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C105" t="s">
-        <v>919</v>
+        <v>1015</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1059</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -23431,13 +24606,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C106" t="s">
-        <v>920</v>
+        <v>1016</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>956</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -23445,13 +24620,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C107" t="s">
-        <v>921</v>
+        <v>1017</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1060</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -23459,13 +24634,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C108" t="s">
-        <v>922</v>
+        <v>1018</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1061</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -23473,13 +24648,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C109" t="s">
-        <v>923</v>
+        <v>1019</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1062</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -23487,13 +24662,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C110" t="s">
-        <v>924</v>
+        <v>1020</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1063</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -23501,13 +24676,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C111" t="s">
-        <v>925</v>
+        <v>1021</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1064</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -23515,13 +24690,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C112" t="s">
-        <v>926</v>
+        <v>1022</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1065</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -23529,13 +24704,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C113" t="s">
-        <v>927</v>
+        <v>1023</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1066</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -23543,13 +24718,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C114" t="s">
-        <v>928</v>
+        <v>1024</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1067</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -23557,13 +24732,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C115" t="s">
-        <v>929</v>
+        <v>1025</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1068</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -23571,13 +24746,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C116" t="s">
-        <v>930</v>
+        <v>1026</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1069</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -23585,13 +24760,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C117" t="s">
-        <v>931</v>
+        <v>1027</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1070</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -23599,13 +24774,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C118" t="s">
-        <v>932</v>
+        <v>1028</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1023</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -23613,13 +24788,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C119" t="s">
-        <v>933</v>
+        <v>1029</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1071</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -23627,13 +24802,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C120" t="s">
-        <v>934</v>
+        <v>1030</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1072</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -23641,13 +24816,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C121" t="s">
-        <v>935</v>
+        <v>1031</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1073</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -23655,13 +24830,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C122" t="s">
-        <v>936</v>
+        <v>1032</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1074</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -23669,13 +24844,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C123" t="s">
-        <v>937</v>
+        <v>1033</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1075</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -23683,13 +24858,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C124" t="s">
-        <v>938</v>
+        <v>1034</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1076</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -23697,13 +24872,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C125" t="s">
-        <v>939</v>
+        <v>1035</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1077</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -23711,13 +24886,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C126" t="s">
-        <v>940</v>
+        <v>1036</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1078</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -23725,13 +24900,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C127" t="s">
-        <v>941</v>
+        <v>1037</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1079</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -23739,13 +24914,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C128" t="s">
-        <v>942</v>
+        <v>1038</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1080</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -23753,13 +24928,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C129" t="s">
-        <v>943</v>
+        <v>1039</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1081</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -23767,13 +24942,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C130" t="s">
-        <v>944</v>
+        <v>1040</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1082</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -23781,13 +24956,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C131" t="s">
-        <v>945</v>
+        <v>1041</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1083</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -23795,13 +24970,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C132" t="s">
-        <v>946</v>
+        <v>1042</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1084</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -23809,13 +24984,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C133" t="s">
-        <v>947</v>
+        <v>1043</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1085</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -23823,13 +24998,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C134" t="s">
-        <v>948</v>
+        <v>1044</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1086</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -23837,13 +25012,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C135" t="s">
-        <v>949</v>
+        <v>1045</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1087</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -23851,13 +25026,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C136" t="s">
-        <v>950</v>
+        <v>1046</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>968</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -23865,13 +25040,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C137" t="s">
-        <v>951</v>
+        <v>1047</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1088</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -23879,13 +25054,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C138" t="s">
-        <v>952</v>
+        <v>1048</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1089</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -23893,13 +25068,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C139" t="s">
-        <v>953</v>
+        <v>1049</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1090</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -23907,13 +25082,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C140" t="s">
-        <v>954</v>
+        <v>1050</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1091</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -23921,13 +25096,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="C141" t="s">
-        <v>955</v>
+        <v>1051</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1092</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -24075,1179 +25250,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C84" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C95" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C98" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C99" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C101" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>